--- a/Team-Data/2007-08/12-25-2007-08.xlsx
+++ b/Team-Data/2007-08/12-25-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -777,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP2" t="n">
         <v>6</v>
@@ -789,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="AS2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -810,10 +877,10 @@
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -965,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -992,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1193,7 @@
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1150,13 +1217,13 @@
         <v>30</v>
       </c>
       <c r="AR4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>24</v>
@@ -1165,7 +1232,7 @@
         <v>27</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX4" t="n">
         <v>16</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
         <v>25</v>
@@ -1341,10 +1408,10 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1356,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.448</v>
+        <v>0.429</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,28 +1479,28 @@
         <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O6" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R6" t="n">
         <v>12.4</v>
@@ -1445,49 +1512,49 @@
         <v>43</v>
       </c>
       <c r="U6" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="V6" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB6" t="n">
         <v>96.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.9</v>
+        <v>-4.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>13</v>
@@ -1502,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1514,7 +1581,7 @@
         <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>16</v>
@@ -1529,25 +1596,25 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB6" t="n">
         <v>17</v>
       </c>
       <c r="BC6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -1654,19 +1721,19 @@
         <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
       </c>
       <c r="AF7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>12</v>
@@ -1681,7 +1748,7 @@
         <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>9.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2039,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2090,7 +2157,7 @@
         <v>21</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
@@ -2212,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>16</v>
@@ -2394,13 +2461,13 @@
         <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
@@ -2409,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
         <v>25</v>
@@ -2430,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>17</v>
@@ -2454,7 +2521,7 @@
         <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>0.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>13</v>
@@ -2576,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2600,7 +2667,7 @@
         <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
         <v>16</v>
@@ -2621,7 +2688,7 @@
         <v>16</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -2785,13 +2852,13 @@
         <v>11</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="n">
         <v>22</v>
       </c>
       <c r="AS13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT13" t="n">
         <v>14</v>
@@ -2809,13 +2876,13 @@
         <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.643</v>
+        <v>0.63</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O14" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="P14" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="R14" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S14" t="n">
         <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W14" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
         <v>4.9</v>
@@ -2916,22 +2983,22 @@
         <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA14" t="n">
         <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.4</v>
+        <v>105.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2943,25 +3010,25 @@
         <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
         <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2991,19 +3058,19 @@
         <v>15</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
       </c>
       <c r="BB14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-3.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,7 +3198,7 @@
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>6</v>
@@ -3170,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -3214,100 +3281,100 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.286</v>
+        <v>0.296</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J16" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.335</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
         <v>19.3</v>
       </c>
       <c r="P16" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.702</v>
+        <v>0.709</v>
       </c>
       <c r="R16" t="n">
         <v>9.6</v>
       </c>
       <c r="S16" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T16" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-4.4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
@@ -3319,10 +3386,10 @@
         <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
@@ -3331,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>27</v>
@@ -3340,16 +3407,16 @@
         <v>19</v>
       </c>
       <c r="AT16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU16" t="n">
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX16" t="n">
         <v>4</v>
@@ -3358,16 +3425,16 @@
         <v>1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3571,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>23</v>
@@ -3519,13 +3586,13 @@
         <v>10</v>
       </c>
       <c r="AS17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
         <v>21</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>19</v>
@@ -3537,16 +3604,16 @@
         <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ17" t="n">
         <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3744,7 @@
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>19</v>
@@ -3698,7 +3765,7 @@
         <v>23</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>23</v>
@@ -3713,7 +3780,7 @@
         <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>2.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
         <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH20" t="n">
         <v>4</v>
@@ -4047,7 +4114,7 @@
         <v>9</v>
       </c>
       <c r="AM20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN20" t="n">
         <v>7</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4235,7 +4302,7 @@
         <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP21" t="n">
         <v>9</v>
@@ -4247,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="AS21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT21" t="n">
         <v>12</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR22" t="n">
         <v>28</v>
@@ -4450,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>20</v>
@@ -4581,7 +4648,7 @@
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>19</v>
@@ -4626,10 +4693,10 @@
         <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4641,7 +4708,7 @@
         <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
         <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
-        <v>0.679</v>
+        <v>0.704</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
@@ -4688,46 +4755,46 @@
         <v>42.2</v>
       </c>
       <c r="J24" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.493</v>
+        <v>0.494</v>
       </c>
       <c r="L24" t="n">
         <v>8.4</v>
       </c>
       <c r="M24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="P24" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.779</v>
+        <v>0.786</v>
       </c>
       <c r="R24" t="n">
         <v>8.6</v>
       </c>
       <c r="S24" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T24" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U24" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="V24" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W24" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X24" t="n">
         <v>6.4</v>
@@ -4736,19 +4803,19 @@
         <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.7</v>
+        <v>109.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4781,19 +4848,19 @@
         <v>6</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
       </c>
       <c r="AS24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>26</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
         <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.556</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,49 +4937,49 @@
         <v>35.9</v>
       </c>
       <c r="J25" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.465</v>
       </c>
       <c r="L25" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N25" t="n">
         <v>0.378</v>
       </c>
       <c r="O25" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P25" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="Q25" t="n">
         <v>0.75</v>
       </c>
       <c r="R25" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T25" t="n">
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="U25" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V25" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="W25" t="n">
         <v>5.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
         <v>3.6</v>
@@ -4921,25 +4988,25 @@
         <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4948,16 +5015,16 @@
         <v>18</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
@@ -4972,16 +5039,16 @@
         <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>9</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
@@ -4999,13 +5066,13 @@
         <v>5</v>
       </c>
       <c r="BA25" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC25" t="n">
         <v>18</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>20</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>17</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5194,7 @@
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5145,7 +5212,7 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP26" t="n">
         <v>7</v>
@@ -5154,13 +5221,13 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5382,7 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL27" t="n">
         <v>4</v>
@@ -5336,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>11</v>
@@ -5363,7 +5430,7 @@
         <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" t="n">
         <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.286</v>
+        <v>0.296</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J28" t="n">
-        <v>84.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L28" t="n">
         <v>4.7</v>
@@ -5428,103 +5495,103 @@
         <v>13.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O28" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P28" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R28" t="n">
         <v>11.6</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T28" t="n">
-        <v>44.7</v>
+        <v>44.5</v>
       </c>
       <c r="U28" t="n">
         <v>20.6</v>
       </c>
       <c r="V28" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="W28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA28" t="n">
         <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR28" t="n">
         <v>16</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>15</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU28" t="n">
         <v>19</v>
@@ -5533,22 +5600,22 @@
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -5673,7 +5740,7 @@
         <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>15</v>
@@ -5873,7 +5940,7 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP30" t="n">
         <v>2</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
@@ -6052,19 +6119,19 @@
         <v>13</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
         <v>13</v>
       </c>
       <c r="AP31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>11</v>
@@ -6082,7 +6149,7 @@
         <v>17</v>
       </c>
       <c r="AX31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-25-2007-08</t>
+          <t>2007-12-25</t>
         </is>
       </c>
     </row>
